--- a/reportes/reporte_citas_por_Fecha.xlsx
+++ b/reportes/reporte_citas_por_Fecha.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,40 +31,34 @@
     <t xml:space="preserve">Area de sucursal </t>
   </si>
   <si>
-    <t>2024-08-06</t>
+    <t>2024-08-07</t>
   </si>
   <si>
     <t>CAN</t>
   </si>
   <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>grupo 4 Financiamiento</t>
+  </si>
+  <si>
+    <t>area Creditos</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
     <t>09:00:00</t>
   </si>
   <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>grupo 4 Financiamiento</t>
-  </si>
-  <si>
-    <t>area Creditos</t>
-  </si>
-  <si>
-    <t>2024-08-07</t>
-  </si>
-  <si>
-    <t>ACT</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
     <t>13:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
   </si>
 </sst>
 </file>
@@ -441,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -493,16 +487,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -519,10 +513,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -539,35 +533,15 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
         <v>11</v>
       </c>
     </row>
